--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.city\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A392D29-F0E1-4AD4-9464-1A54DFFD0D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +91,6 @@
   </si>
   <si>
     <t>SIQ_16</t>
-  </si>
-  <si>
-    <t>is the Maximum number of users equals 20 ?</t>
   </si>
   <si>
     <t>Content of the advertisement as follows :  
@@ -113,9 +111,6 @@
 Address (Optional)</t>
   </si>
   <si>
-    <t>When a car is reserved , does the available cars decresases immediately ?</t>
-  </si>
-  <si>
     <t>Website to be used on pc only ?</t>
   </si>
   <si>
@@ -174,12 +169,64 @@
  press Login button the following error massage appear
  "invalid username or password"</t>
   </si>
+  <si>
+    <t>Is the maximum number of users stored in the database 20?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>SIQ_19</t>
+  </si>
+  <si>
+    <t>When a car is reserved ,
+does the available cars decresases immediately ?</t>
+  </si>
+  <si>
+    <t>should the Password have 20 characters as a maximum ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if all search parameters are optional what is the mandatory?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The intention was to allow a flexible search
+where all parameters are optional.
+If no filters are applied, the system would display all results by default.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +235,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF38761D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,26 +307,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,185 +650,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.city\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\OneDrive - MUST University\Desktop\SIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A392D29-F0E1-4AD4-9464-1A54DFFD0D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A20695-F66E-4C2E-8EFA-D458D0756DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -221,12 +221,175 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>SIQ_20</t>
+  </si>
+  <si>
+    <t>SIQ_21</t>
+  </si>
+  <si>
+    <t>SIQ_22</t>
+  </si>
+  <si>
+    <t>SIQ_23</t>
+  </si>
+  <si>
+    <t>Should password field accept alpahbetic characters , numbers and special characters ?</t>
+  </si>
+  <si>
+    <t>Password field shouldn't accepts spaces ?</t>
+  </si>
+  <si>
+    <t>In the address field in regesteration , the only allowed special characters shall be "@" and "." ?</t>
+  </si>
+  <si>
+    <t>Address contains maximum of 30 characters ?</t>
+  </si>
+  <si>
+    <t>Users can reserve a car by clicking a "Reserve Now" button on the car Adertisement page</t>
+  </si>
+  <si>
+    <t>Reservation of a car decreases the available car number in the car list</t>
+  </si>
+  <si>
+    <t>Car reservation duration is 72 Hour .</t>
+  </si>
+  <si>
+    <t>when a user reserve a car confirmation message should appear "Reserved for 72 Hour"</t>
+  </si>
+  <si>
+    <t>The user can cancel an active reservation.</t>
+  </si>
+  <si>
+    <t>A confirmation message appear upon successful cancellation  with the following text: "Reservation cancelled"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin shall be able to search for a User by its Email Address </t>
+  </si>
+  <si>
+    <t>Admin shall be able to Creat new User with Email Address and password only</t>
+  </si>
+  <si>
+    <t>Admin should follow the registration restriction for Email and password fields</t>
+  </si>
+  <si>
+    <t>The user will be forced to enter the rest of the required data when he log in .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin shall be able to delete the advertisement using the delete button In the advertisement page </t>
+  </si>
+  <si>
+    <t>while Searching If the entered Email does not exist,
+  the field turns red and an error message appears with the following text: "Invalid Input"</t>
+  </si>
+  <si>
+    <t>SIQ_24</t>
+  </si>
+  <si>
+    <t>SIQ_25</t>
+  </si>
+  <si>
+    <t>SIQ_26</t>
+  </si>
+  <si>
+    <t>SIQ_27</t>
+  </si>
+  <si>
+    <t>SIQ_28</t>
+  </si>
+  <si>
+    <t>SIQ_29</t>
+  </si>
+  <si>
+    <t>SIQ_30</t>
+  </si>
+  <si>
+    <t>SIQ_31</t>
+  </si>
+  <si>
+    <t>SIQ_32</t>
+  </si>
+  <si>
+    <t>SIQ_33</t>
+  </si>
+  <si>
+    <t>SIQ_34</t>
+  </si>
+  <si>
+    <t>SIQ_35</t>
+  </si>
+  <si>
+    <t>Car name field shall accept only alphabetic characters, and allow spaces</t>
+  </si>
+  <si>
+    <t>Car name search shall be case-insensitive</t>
+  </si>
+  <si>
+    <t>User shall find the option to search by Manufacturing Year (Optional)</t>
+  </si>
+  <si>
+    <t>Manufacturing Year input shall be numeric only, and in the range 1980–current year</t>
+  </si>
+  <si>
+    <t>User shall find the option to search by Price (Optional)</t>
+  </si>
+  <si>
+    <t>Price input shall be numeric only, with minimum = 0</t>
+  </si>
+  <si>
+    <t>Price input shall not accept special characters or letters</t>
+  </si>
+  <si>
+    <t>User shall find the option to search by Address (Optional)</t>
+  </si>
+  <si>
+    <t>Address field shall allow alphanumeric characters, spaces, commas, and hyphens</t>
+  </si>
+  <si>
+    <t>User shall be able to combine multiple filters in a single search query</t>
+  </si>
+  <si>
+    <t>If no results match the search, a message shall appear: 'No cars found matching your filters.'</t>
+  </si>
+  <si>
+    <t>SIQ_36</t>
+  </si>
+  <si>
+    <t>SIQ_37</t>
+  </si>
+  <si>
+    <t>SIQ_38</t>
+  </si>
+  <si>
+    <t>SIQ_39</t>
+  </si>
+  <si>
+    <t>SIQ_40</t>
+  </si>
+  <si>
+    <t>SIQ_41</t>
+  </si>
+  <si>
+    <t>SIQ_42</t>
+  </si>
+  <si>
+    <t>SIQ_43</t>
+  </si>
+  <si>
+    <t>SIQ_44</t>
+  </si>
+  <si>
+    <t>SIQ_45</t>
+  </si>
+  <si>
+    <t>SIQ_46</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +447,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,11 +536,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -365,13 +561,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,22 +840,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -680,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -692,7 +881,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -704,7 +893,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -718,7 +907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -730,7 +919,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,7 +931,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -754,7 +943,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,7 +955,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -778,7 +967,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -790,7 +979,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -802,7 +991,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -814,7 +1003,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -826,7 +1015,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -838,7 +1027,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,7 +1039,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -862,7 +1051,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -874,7 +1063,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -886,7 +1075,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -898,7 +1087,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -910,17 +1099,288 @@
       </c>
       <c r="D20" s="2"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C47">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\upload to git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59D19-AEAA-4130-BE6A-AF401A17D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
   <si>
     <t>Question</t>
   </si>
@@ -529,12 +530,54 @@
   <si>
     <t>SIQ_ID</t>
   </si>
+  <si>
+    <t>The max age for user is 100 year</t>
+  </si>
+  <si>
+    <t>Contact number must start with 201</t>
+  </si>
+  <si>
+    <t>License expiration date at least the current year at max 3 years from the current year</t>
+  </si>
+  <si>
+    <t>Admin accounts will be 6 accounts and stored in database without registration</t>
+  </si>
+  <si>
+    <t>Car name in search lenghth from 3 - 30 chars</t>
+  </si>
+  <si>
+    <t>the Address follow the same criteria of the advertisement</t>
+  </si>
+  <si>
+    <t>SIQ_74</t>
+  </si>
+  <si>
+    <t>SIQ_75</t>
+  </si>
+  <si>
+    <t>SIQ_76</t>
+  </si>
+  <si>
+    <t>SIQ_77</t>
+  </si>
+  <si>
+    <t>SIQ_78</t>
+  </si>
+  <si>
+    <t>SIQ_79</t>
+  </si>
+  <si>
+    <t>The password in the website show as ****** (hidden)</t>
+  </si>
+  <si>
+    <t>SIQ_80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +611,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,7 +710,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -951,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,8 +1921,87 @@
       </c>
       <c r="D74" s="7"/>
     </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C20">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1868,7 +2010,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C75:C81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SIQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59D19-AEAA-4130-BE6A-AF401A17D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
   <si>
     <t>Question</t>
   </si>
@@ -307,12 +306,6 @@
     <t xml:space="preserve">Confirmation Password should match the password </t>
   </si>
   <si>
-    <t>Phone number should start with +20</t>
-  </si>
-  <si>
-    <t>According to Birthday the Age must be +18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address should contain 30 characters </t>
   </si>
   <si>
@@ -355,19 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Admin shall be able to search for a User by its Email Address </t>
-  </si>
-  <si>
-    <t>while Searching If the entered Email does not exist,
-  the field turns red and an error message appears with the following text: "Invalid Input"</t>
-  </si>
-  <si>
-    <t>Admin shall be able to Creat new User with Email Address and password only</t>
-  </si>
-  <si>
-    <t>Admin should follow the registration restriction for Email and password fields</t>
-  </si>
-  <si>
-    <t>The user will be forced to enter the rest of the required data when he log in .</t>
   </si>
   <si>
     <t xml:space="preserve">Admin shall be able to delete the advertisement using the delete button In the advertisement page </t>
@@ -426,9 +406,6 @@
     <t>Car Price must contain only digits.</t>
   </si>
   <si>
-    <t>Car Price must be between 100,000 and 9,223,372,036,854,775,807 EGP.</t>
-  </si>
-  <si>
     <t>If Car Price is invalid, the input field must turn red and display the error message: "input is not valid" in red font.</t>
   </si>
   <si>
@@ -462,9 +439,6 @@
     <t>License Expiration must not contain leading spaces.</t>
   </si>
   <si>
-    <t>License Expiration must not be older than 3 years from the current date.</t>
-  </si>
-  <si>
     <t>License Expiration must follow the format Day/Month/Year.</t>
   </si>
   <si>
@@ -516,9 +490,6 @@
     <t>In the address field in regesteration , the only allowed special characters shall be "," and "." ?</t>
   </si>
   <si>
-    <t>Contact Number must start with 20.</t>
-  </si>
-  <si>
     <t>Contact Number must contain exactly 10 digits after 20.</t>
   </si>
   <si>
@@ -531,12 +502,6 @@
     <t>SIQ_ID</t>
   </si>
   <si>
-    <t>The max age for user is 100 year</t>
-  </si>
-  <si>
-    <t>Contact number must start with 201</t>
-  </si>
-  <si>
     <t>License expiration date at least the current year at max 3 years from the current year</t>
   </si>
   <si>
@@ -561,22 +526,38 @@
     <t>SIQ_77</t>
   </si>
   <si>
-    <t>SIQ_78</t>
-  </si>
-  <si>
-    <t>SIQ_79</t>
-  </si>
-  <si>
     <t>The password in the website show as ****** (hidden)</t>
   </si>
   <si>
-    <t>SIQ_80</t>
+    <t>According to Birthday the Age must be more thant or equal 18 and less than or equal 100</t>
+  </si>
+  <si>
+    <t>Phone number should start with 201</t>
+  </si>
+  <si>
+    <t>Contact Number must start with 201.</t>
+  </si>
+  <si>
+    <t>Car Price must be between 100,000 and 2147483647 EGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin shall be able to Creat new User </t>
+  </si>
+  <si>
+    <t>Admin should follow the registration restriction for each field</t>
+  </si>
+  <si>
+    <t>When deleting user , admin stays on the same page with list of users</t>
+  </si>
+  <si>
+    <t>while Searching If the entered Email does not exist,
+  the field turns red and an error message appears with the following text: "No User found matching your filters"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -671,11 +652,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,6 +700,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1078,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1194,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1206,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1218,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -1230,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1242,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1254,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1266,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1278,10 +1284,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1290,10 +1296,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -1302,10 +1308,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1314,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1326,10 +1332,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1338,10 +1344,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1350,10 +1356,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1362,10 +1368,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1374,10 +1380,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -1386,10 +1392,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1398,10 +1404,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1410,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1422,10 +1428,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -1433,11 +1439,11 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>103</v>
+      <c r="B34" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1446,10 +1452,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1458,10 +1464,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -1470,46 +1476,46 @@
         <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="B38" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1518,10 +1524,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1530,22 +1536,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1554,22 +1560,22 @@
         <v>45</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1578,10 +1584,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -1590,10 +1596,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1602,10 +1608,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -1614,10 +1620,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1"/>
     </row>
@@ -1626,10 +1632,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -1638,10 +1644,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1650,10 +1656,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D52" s="7"/>
     </row>
@@ -1662,10 +1668,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D53" s="7"/>
     </row>
@@ -1674,10 +1680,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D54" s="7"/>
     </row>
@@ -1686,10 +1692,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D55" s="7"/>
     </row>
@@ -1698,10 +1704,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D56" s="7"/>
     </row>
@@ -1710,10 +1716,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="7"/>
     </row>
@@ -1722,10 +1728,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D58" s="7"/>
     </row>
@@ -1734,10 +1740,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D59" s="7"/>
     </row>
@@ -1746,10 +1752,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D60" s="7"/>
     </row>
@@ -1758,10 +1764,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D61" s="7"/>
     </row>
@@ -1770,10 +1776,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D62" s="7"/>
     </row>
@@ -1782,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -1794,10 +1800,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D64" s="7"/>
     </row>
@@ -1806,10 +1812,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" s="7"/>
     </row>
@@ -1818,10 +1824,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -1830,10 +1836,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D67" s="7"/>
     </row>
@@ -1842,10 +1848,10 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D68" s="7"/>
     </row>
@@ -1854,10 +1860,10 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D69" s="7"/>
     </row>
@@ -1866,10 +1872,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D70" s="7"/>
     </row>
@@ -1878,10 +1884,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D71" s="7"/>
     </row>
@@ -1890,10 +1896,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D72" s="7"/>
     </row>
@@ -1902,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D73" s="7"/>
     </row>
@@ -1914,82 +1920,78 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="7"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="7"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2001,7 +2003,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C81">
+  <conditionalFormatting sqref="C79:C81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2010,7 +2012,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C75:C81" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C79:C81">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C6C45-4E9C-444F-83FE-DB8B1965411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,13 +258,6 @@
   </si>
   <si>
     <t>SIQ_73</t>
-  </si>
-  <si>
-    <t>Search filter by : 
-Names of car (Optional)
-Manfucturing year (Optional)
-Price (Optional)
-Address (Optional)</t>
   </si>
   <si>
     <t>When a car is reserved ,
@@ -454,15 +448,9 @@
     <t>Price must be numeric only.</t>
   </si>
   <si>
-    <t>Price must be greater than or equal to 0.</t>
-  </si>
-  <si>
     <t>Price must not contain special characters or letters.</t>
   </si>
   <si>
-    <t>Address must allow alphanumeric characters, spaces, commas, and hyphens.</t>
-  </si>
-  <si>
     <t>Users must be able to combine multiple filters in a single search query.</t>
   </si>
   <si>
@@ -509,9 +497,6 @@
   </si>
   <si>
     <t>Car name in search lenghth from 3 - 30 chars</t>
-  </si>
-  <si>
-    <t>the Address follow the same criteria of the advertisement</t>
   </si>
   <si>
     <t>SIQ_74</t>
@@ -552,12 +537,28 @@
   <si>
     <t>while Searching If the entered Email does not exist,
   the field turns red and an error message appears with the following text: "No User found matching your filters"</t>
+  </si>
+  <si>
+    <t>City must allow alphanumeric characters, spaces, commas, and hyphens.</t>
+  </si>
+  <si>
+    <t>Search filter by : 
+Names of car (Optional)
+Manfucturing year (Optional)
+Price (Optional)
+City (Optional)</t>
+  </si>
+  <si>
+    <t>The City follow the same criteria of the advertisement</t>
+  </si>
+  <si>
+    <t>Price must not equal to 0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -700,14 +701,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1128,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1176,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1200,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1212,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -1236,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1260,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1272,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1284,10 +1284,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1296,10 +1296,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -1308,10 +1308,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1332,10 +1332,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1344,10 +1344,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1356,10 +1356,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1368,10 +1368,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1380,10 +1380,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -1392,10 +1392,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1404,10 +1404,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1416,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -1439,11 +1439,11 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>158</v>
+      <c r="B34" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1452,10 +1452,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1464,10 +1464,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -1476,22 +1476,22 @@
         <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -1500,22 +1500,22 @@
         <v>42</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1524,10 +1524,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1536,22 +1536,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1560,22 +1560,22 @@
         <v>45</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1584,10 +1584,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -1596,10 +1596,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1608,10 +1608,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -1620,10 +1620,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1"/>
     </row>
@@ -1632,10 +1632,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -1644,10 +1644,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1656,10 +1656,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D52" s="7"/>
     </row>
@@ -1668,10 +1668,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D53" s="7"/>
     </row>
@@ -1680,10 +1680,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="7"/>
     </row>
@@ -1692,10 +1692,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7"/>
     </row>
@@ -1704,10 +1704,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D56" s="7"/>
     </row>
@@ -1716,10 +1716,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7"/>
     </row>
@@ -1728,10 +1728,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D58" s="7"/>
     </row>
@@ -1740,10 +1740,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D59" s="7"/>
     </row>
@@ -1752,10 +1752,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D60" s="7"/>
     </row>
@@ -1764,10 +1764,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D61" s="7"/>
     </row>
@@ -1776,10 +1776,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D62" s="7"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -1800,10 +1800,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D64" s="7"/>
     </row>
@@ -1812,10 +1812,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D65" s="7"/>
     </row>
@@ -1824,10 +1824,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -1836,10 +1836,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D67" s="7"/>
     </row>
@@ -1848,10 +1848,10 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D68" s="7"/>
     </row>
@@ -1860,10 +1860,10 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D69" s="7"/>
     </row>
@@ -1872,10 +1872,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D70" s="7"/>
     </row>
@@ -1884,10 +1884,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D71" s="7"/>
     </row>
@@ -1896,10 +1896,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D72" s="7"/>
     </row>
@@ -1908,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D73" s="7"/>
     </row>
@@ -1920,78 +1920,75 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2012,7 +2009,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C79:C81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C79:C81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C6C45-4E9C-444F-83FE-DB8B1965411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311C0C4-1F30-430A-B4C6-B9BBA9452932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Requirments/SIQ/SIQ.xlsx
+++ b/Requirments/SIQ/SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SIQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311C0C4-1F30-430A-B4C6-B9BBA9452932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Question</t>
   </si>
@@ -554,11 +553,17 @@
   <si>
     <t>Price must not equal to 0.</t>
   </si>
+  <si>
+    <t>SIQ_78</t>
+  </si>
+  <si>
+    <t>User and Admin can upload an image in the advertisment in write format</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -701,9 +706,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,6 +714,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1446,7 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -1483,7 +1490,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>130</v>
       </c>
@@ -1976,19 +1983,28 @@
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2000,7 +2016,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C81">
+  <conditionalFormatting sqref="C80:C81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2009,7 +2025,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C79:C81" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C80:C81">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
